--- a/Docment/DDZ_Material.xlsx
+++ b/Docment/DDZ_Material.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,14 +15,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>54张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张牌的背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass字样，显示在出牌区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民头，地主头图案。（需要显示在人视频区域头像边上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个玩家叫分的数字？自己画还是给图片？（需要显示在人视频区域头像边上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹效果图案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,7 +94,105 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1006929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819651" y="0"/>
+          <a:ext cx="704850" cy="1006929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1130329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="1257300"/>
+          <a:ext cx="685800" cy="1025554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,37 +481,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="63.25" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docment/DDZ_Material.xlsx
+++ b/Docment/DDZ_Material.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>54张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>样列</t>
+    <t>类似规范效果样列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +69,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,13 +109,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,6 +218,88 @@
         <a:xfrm>
           <a:off x="4895850" y="1257300"/>
           <a:ext cx="685800" cy="1025554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2030873</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819651" y="3019425"/>
+          <a:ext cx="2030872" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2857501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343651" y="6438901"/>
+          <a:ext cx="2857500" cy="866236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,16 +600,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="63.25" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="83.25" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -507,22 +626,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
